--- a/biology/Botanique/Lacunaria_jenmanii/Lacunaria_jenmanii.xlsx
+++ b/biology/Botanique/Lacunaria_jenmanii/Lacunaria_jenmanii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lacunaria jenmanii est une espèce de plantes à fleurs de la famille des Quiinaceae, selon la classification classique, de la famille des Ochnaceae, selon la classification phylogénétique. C'est un arbre originaire d'Amérique du Sud.
 </t>
@@ -511,10 +523,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aire de répartition naturelle de cette espèce est l'Amérique du Sud tropicale. 
-C'est un arbre qui pousse principalement dans le biome tropical humide[1]. 
+C'est un arbre qui pousse principalement dans le biome tropical humide. 
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (29 décembre 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (29 décembre 2023) :
 Lacunaria jenmanii subsp. jenmanii
 Lacunaria jenmanii subsp. subsessilis J.V.Schneid. &amp; Zizka</t>
         </is>
@@ -575,9 +591,11 @@
           <t>Lacunaria jenmanii et l'Homme</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lacunaria jenmanii est utilisé comme médicament et comme aliment[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lacunaria jenmanii est utilisé comme médicament et comme aliment.
 </t>
         </is>
       </c>
@@ -606,10 +624,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Lacunaria jenmanii (Oliv.) Ducke[2].
-L'espèce a été initialement classée dans le genre Touroulia sous le basionyme Touroulia jenmanii Oliv.[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom correct complet (avec auteur) de ce taxon est Lacunaria jenmanii (Oliv.) Ducke.
+L'espèce a été initialement classée dans le genre Touroulia sous le basionyme Touroulia jenmanii Oliv..
 </t>
         </is>
       </c>
